--- a/Eurorack_MIDIThru4_TRS/Eurorack_MIDIThru4_TRS_bom.xlsx
+++ b/Eurorack_MIDIThru4_TRS/Eurorack_MIDIThru4_TRS_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Desktop/Tindie/Eurorack_MIDIThru4_TRS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_MIDIThru4_TRS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB8556-1DAA-B341-88C3-9015AF18EC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59BCE9-7F15-934D-B764-D3CBE34288C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46520" yWindow="1260" windowWidth="28800" windowHeight="16200" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="211">
   <si>
     <t>D</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t>JP1, S1-S5</t>
+  </si>
+  <si>
+    <t>Power regulator</t>
+  </si>
+  <si>
+    <t>L7805</t>
   </si>
 </sst>
 </file>
@@ -905,12 +911,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,13 +1414,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -1725,10 +1731,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -2644,7 +2650,7 @@
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="29"/>
+      <c r="E45" s="26"/>
       <c r="R45" t="s">
         <v>13</v>
       </c>
@@ -2692,7 +2698,7 @@
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="29"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -2701,7 +2707,7 @@
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="29"/>
+      <c r="E49" s="26"/>
       <c r="R49" t="s">
         <v>13</v>
       </c>
